--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -5,37 +5,38 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Desktop\Polytech Work\DB2-Design-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\DB2-Design-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9603450-EBF6-47DD-9208-2614011DDFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3BA54B-90B4-476A-8254-4884B18256F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
+    <workbookView xWindow="3135" yWindow="1785" windowWidth="21600" windowHeight="11385" tabRatio="709" activeTab="2" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="6" r:id="rId1"/>
-    <sheet name="Facility" sheetId="35" r:id="rId2"/>
-    <sheet name="Address" sheetId="36" r:id="rId3"/>
+    <sheet name="Address" sheetId="36" r:id="rId2"/>
+    <sheet name="contact" sheetId="57" r:id="rId3"/>
     <sheet name="Person_Role" sheetId="37" r:id="rId4"/>
     <sheet name="Role_Category" sheetId="38" r:id="rId5"/>
-    <sheet name="Event_Booking" sheetId="39" r:id="rId6"/>
-    <sheet name="Field" sheetId="40" r:id="rId7"/>
-    <sheet name="Match_Official" sheetId="41" r:id="rId8"/>
-    <sheet name="Incident_report" sheetId="42" r:id="rId9"/>
-    <sheet name="Player" sheetId="43" r:id="rId10"/>
-    <sheet name="Team" sheetId="44" r:id="rId11"/>
-    <sheet name="Match" sheetId="45" r:id="rId12"/>
-    <sheet name="MO_Selection" sheetId="46" r:id="rId13"/>
-    <sheet name="Injury_code" sheetId="47" r:id="rId14"/>
-    <sheet name="Player_Team" sheetId="48" r:id="rId15"/>
-    <sheet name="Team_Entry" sheetId="49" r:id="rId16"/>
-    <sheet name="Squad" sheetId="50" r:id="rId17"/>
-    <sheet name="Competition" sheetId="51" r:id="rId18"/>
-    <sheet name="Position" sheetId="52" r:id="rId19"/>
-    <sheet name="Point" sheetId="53" r:id="rId20"/>
-    <sheet name="Result" sheetId="54" r:id="rId21"/>
-    <sheet name="Season" sheetId="55" r:id="rId22"/>
-    <sheet name="Grade" sheetId="56" r:id="rId23"/>
+    <sheet name="Facility" sheetId="35" r:id="rId6"/>
+    <sheet name="Event_Booking" sheetId="39" r:id="rId7"/>
+    <sheet name="Field" sheetId="40" r:id="rId8"/>
+    <sheet name="Match_Official" sheetId="41" r:id="rId9"/>
+    <sheet name="Incident_report" sheetId="42" r:id="rId10"/>
+    <sheet name="Player" sheetId="43" r:id="rId11"/>
+    <sheet name="Team" sheetId="44" r:id="rId12"/>
+    <sheet name="Match" sheetId="45" r:id="rId13"/>
+    <sheet name="MO_Selection" sheetId="46" r:id="rId14"/>
+    <sheet name="Injury_code" sheetId="47" r:id="rId15"/>
+    <sheet name="Player_Team" sheetId="48" r:id="rId16"/>
+    <sheet name="Team_Entry" sheetId="49" r:id="rId17"/>
+    <sheet name="Squad" sheetId="50" r:id="rId18"/>
+    <sheet name="Competition" sheetId="51" r:id="rId19"/>
+    <sheet name="Position" sheetId="52" r:id="rId20"/>
+    <sheet name="Point" sheetId="53" r:id="rId21"/>
+    <sheet name="Result" sheetId="54" r:id="rId22"/>
+    <sheet name="Season" sheetId="55" r:id="rId23"/>
+    <sheet name="Grade" sheetId="56" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="192">
   <si>
     <t>Field Name</t>
   </si>
@@ -598,9 +599,6 @@
     <t>The maximum year of birth of a player</t>
   </si>
   <si>
-    <t>UN</t>
-  </si>
-  <si>
     <t>The persons first name</t>
   </si>
   <si>
@@ -613,10 +611,28 @@
     <t>An ID which refers to the persons address information</t>
   </si>
   <si>
-    <t>The persons contact email</t>
-  </si>
-  <si>
-    <t>The persons contact mobile number</t>
+    <t>contact_id</t>
+  </si>
+  <si>
+    <t>An ID which refers to the persons contact information</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>An ID unique to each contact record</t>
+  </si>
+  <si>
+    <t>unique email address</t>
+  </si>
+  <si>
+    <t>unique mobile phone number</t>
+  </si>
+  <si>
+    <t>home_phone</t>
+  </si>
+  <si>
+    <t>business_phone</t>
   </si>
 </sst>
 </file>
@@ -691,7 +707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -758,12 +774,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,6 +829,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1121,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3134A29A-D97E-4DC9-B445-824F51CC3799}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1223,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1199,7 +1236,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -1212,7 +1249,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -1227,38 +1264,169 @@
         <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>185</v>
       </c>
       <c r="E8" s="10"/>
     </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59694024-884F-49E5-A042-C8DC6400E3FA}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+    </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>186</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1299,7 +1467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188C1F7C-F856-4881-A949-C006F7614B28}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E14"/>
@@ -1456,7 +1624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2245F93-9B0E-461F-B4AD-A3F29B2A559D}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:E14"/>
@@ -1635,7 +1803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A2F7F4-0E5B-438B-A61A-22546EE1F016}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E14"/>
@@ -1790,7 +1958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71DAC37-6EFB-4B86-A8AC-50EA3C991879}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E14"/>
@@ -1937,7 +2105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969DDC76-82C0-4C09-B1AF-07B5E609F498}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:E14"/>
@@ -2088,7 +2256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493335D7-29F2-4FA1-A104-C151237F28D9}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E14"/>
@@ -2243,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D4B48C-49DA-4D84-9AB2-50E75C789535}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E14"/>
@@ -2398,7 +2566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5AA15-3BFE-461F-A57E-6D6FCE4A0D33}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E14"/>
@@ -2545,7 +2713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA7FDF5-A5B7-4B6A-93CF-EA72AC6D5AB8}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E14"/>
@@ -2696,7 +2864,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B497D195-D97D-43BA-A6DB-DEB9A38F07E4}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7B78A5-B5FB-40DA-B8F7-073DA6027155}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:E14"/>
@@ -2847,168 +3143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F1E5BD-E349-426E-8C47-F9AB098AFD23}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B885CAA-289A-41CC-942B-745007C798A4}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:E14"/>
@@ -3169,7 +3304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A655F7D-A785-4C93-BC06-420EDFBA04E5}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:E14"/>
@@ -3316,7 +3451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04E0BCD-1A6F-4935-A798-52EEF861BBCC}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:E14"/>
@@ -3475,7 +3610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92AA4EF-BD71-485B-BCED-5421BE5D232D}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:E14"/>
@@ -3649,12 +3784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B497D195-D97D-43BA-A6DB-DEB9A38F07E4}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F499D38F-DE38-427A-88A9-CFC47E1FAAC6}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3668,7 +3802,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3703,105 +3837,70 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
       <c r="B7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>191</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
@@ -4106,6 +4205,167 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F1E5BD-E349-426E-8C47-F9AB098AFD23}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D75BDBA-1AFE-4EC1-B9E5-91911710D93D}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E14"/>
@@ -4278,7 +4538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF223EA-C2E4-424D-B2BA-9BCAF8D122AD}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E14"/>
@@ -4437,7 +4697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69023113-D5E1-40F5-ADE2-BA6E6A3342E7}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E14"/>
@@ -4588,171 +4848,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59694024-884F-49E5-A042-C8DC6400E3FA}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\DB2-Design-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3BA54B-90B4-476A-8254-4884B18256F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F356D1C-E04A-4220-AE8B-6E07D0DA7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1785" windowWidth="21600" windowHeight="11385" tabRatio="709" activeTab="2" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="8" activeTab="13" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="6" r:id="rId1"/>
@@ -34,9 +34,7 @@
     <sheet name="Competition" sheetId="51" r:id="rId19"/>
     <sheet name="Position" sheetId="52" r:id="rId20"/>
     <sheet name="Point" sheetId="53" r:id="rId21"/>
-    <sheet name="Result" sheetId="54" r:id="rId22"/>
-    <sheet name="Season" sheetId="55" r:id="rId23"/>
-    <sheet name="Grade" sheetId="56" r:id="rId24"/>
+    <sheet name="Grade" sheetId="56" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="175">
   <si>
     <t>Field Name</t>
   </si>
@@ -122,9 +120,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>The contact number for the facility</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -176,9 +171,6 @@
     <t>address_id</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>An ID that links the a facilities address</t>
   </si>
   <si>
@@ -374,27 +366,9 @@
     <t>founded</t>
   </si>
   <si>
-    <t>address_1</t>
-  </si>
-  <si>
-    <t>address_2</t>
-  </si>
-  <si>
     <t>When the team was founded</t>
   </si>
   <si>
-    <t>First line of the teams address</t>
-  </si>
-  <si>
-    <t>Second line of the teams address</t>
-  </si>
-  <si>
-    <t>The city the team is located in</t>
-  </si>
-  <si>
-    <t>The contact number for the team</t>
-  </si>
-  <si>
     <t>First line of the address</t>
   </si>
   <si>
@@ -425,9 +399,6 @@
     <t>An ID which refers to an official</t>
   </si>
   <si>
-    <t>mo_secletion</t>
-  </si>
-  <si>
     <t>code_id</t>
   </si>
   <si>
@@ -542,36 +513,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>season_id</t>
-  </si>
-  <si>
-    <t>An ID unique to each games results</t>
-  </si>
-  <si>
-    <t>An ID which refers to the season the game was played in</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>winning_team</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>final_score</t>
-  </si>
-  <si>
-    <t>The winning team of the season</t>
-  </si>
-  <si>
-    <t>The year which the season took place</t>
-  </si>
-  <si>
     <t>grade</t>
   </si>
   <si>
@@ -633,6 +574,12 @@
   </si>
   <si>
     <t>business_phone</t>
+  </si>
+  <si>
+    <t>mo_selection</t>
+  </si>
+  <si>
+    <t>An ID that links the a facilities phone, email details</t>
   </si>
 </sst>
 </file>
@@ -788,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,12 +771,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,6 +782,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,7 +1111,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,16 +1125,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1196,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1204,10 +1154,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
@@ -1220,10 +1170,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1233,10 +1183,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -1246,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -1258,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -1273,13 +1223,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1320,16 +1270,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1341,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1349,13 +1299,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1364,54 +1314,54 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -1473,7 +1423,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,16 +1437,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1508,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1516,10 +1466,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
@@ -1529,39 +1479,39 @@
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -1627,10 +1577,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2245F93-9B0E-461F-B4AD-A3F29B2A559D}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,16 +1594,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>99</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1665,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1673,13 +1623,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1688,13 +1638,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1703,97 +1653,50 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" s="9" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>108</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="9" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
@@ -1823,16 +1726,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1844,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1852,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>19</v>
@@ -1867,13 +1770,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1882,13 +1785,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -1963,8 +1866,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,16 +1881,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>173</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1999,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2007,13 +1910,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2022,13 +1925,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -2125,16 +2028,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2146,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2154,39 +2057,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2276,16 +2179,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2297,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2305,13 +2208,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2320,28 +2223,28 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2431,16 +2334,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>127</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2452,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2460,13 +2363,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2475,13 +2378,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -2490,13 +2393,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2586,16 +2489,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2607,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2615,13 +2518,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2630,13 +2533,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -2733,16 +2636,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>137</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2754,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2762,39 +2665,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2884,16 +2787,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2905,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2913,13 +2816,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2929,10 +2832,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -2942,10 +2845,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2955,23 +2858,23 @@
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -3012,16 +2915,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3033,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3041,39 +2944,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -3163,16 +3066,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3184,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3192,13 +3095,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -3207,13 +3110,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -3222,26 +3125,26 @@
         <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -3305,312 +3208,6 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A655F7D-A785-4C93-BC06-420EDFBA04E5}">
-  <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04E0BCD-1A6F-4935-A798-52EEF861BBCC}">
-  <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92AA4EF-BD71-485B-BCED-5421BE5D232D}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:E14"/>
@@ -3630,16 +3227,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3651,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3659,13 +3256,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -3674,13 +3271,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -3689,52 +3286,52 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -3787,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F499D38F-DE38-427A-88A9-CFC47E1FAAC6}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,16 +3399,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>167</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3823,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3831,13 +3428,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -3847,13 +3444,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3862,44 +3459,44 @@
         <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>42</v>
+        <v>172</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="15" t="s">
-        <v>34</v>
+      <c r="E7" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="18"/>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3916,7 +3513,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3930,16 +3527,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3951,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3959,13 +3556,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -3974,20 +3571,20 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="7"/>
@@ -4079,16 +3676,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4100,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4108,26 +3705,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -4210,7 +3807,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,16 +3821,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4245,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4253,26 +3850,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -4281,29 +3878,31 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4385,16 +3984,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4406,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4414,10 +4013,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>17</v>
@@ -4429,13 +4028,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -4444,52 +4043,52 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -4558,16 +4157,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4579,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4587,13 +4186,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -4602,39 +4201,39 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -4717,16 +4316,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4738,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4746,10 +4345,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>16</v>
@@ -4761,26 +4360,26 @@
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="E5" s="9"/>
     </row>

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\DB2-Design-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F356D1C-E04A-4220-AE8B-6E07D0DA7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C7BE4-C5F8-4381-88D5-FA5D566BB1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="8" activeTab="13" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="6" r:id="rId1"/>
@@ -1110,8 +1110,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +1866,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3513,7 +3513,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Desktop\Polytech Work\DB2-Design-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9603450-EBF6-47DD-9208-2614011DDFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3CAB77-380A-430B-B182-3DB3FC182682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="5" activeTab="17" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="6" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Role_Category" sheetId="38" r:id="rId5"/>
     <sheet name="Event_Booking" sheetId="39" r:id="rId6"/>
     <sheet name="Field" sheetId="40" r:id="rId7"/>
-    <sheet name="Match_Official" sheetId="41" r:id="rId8"/>
+    <sheet name="Referee" sheetId="41" r:id="rId8"/>
     <sheet name="Incident_report" sheetId="42" r:id="rId9"/>
     <sheet name="Player" sheetId="43" r:id="rId10"/>
     <sheet name="Team" sheetId="44" r:id="rId11"/>
     <sheet name="Match" sheetId="45" r:id="rId12"/>
-    <sheet name="MO_Selection" sheetId="46" r:id="rId13"/>
+    <sheet name="Referee_Selection" sheetId="46" r:id="rId13"/>
     <sheet name="Injury_code" sheetId="47" r:id="rId14"/>
     <sheet name="Player_Team" sheetId="48" r:id="rId15"/>
     <sheet name="Team_Entry" sheetId="49" r:id="rId16"/>
@@ -33,9 +33,8 @@
     <sheet name="Competition" sheetId="51" r:id="rId18"/>
     <sheet name="Position" sheetId="52" r:id="rId19"/>
     <sheet name="Point" sheetId="53" r:id="rId20"/>
-    <sheet name="Result" sheetId="54" r:id="rId21"/>
-    <sheet name="Season" sheetId="55" r:id="rId22"/>
-    <sheet name="Grade" sheetId="56" r:id="rId23"/>
+    <sheet name="Grade" sheetId="56" r:id="rId21"/>
+    <sheet name="Contact" sheetId="58" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="180">
   <si>
     <t>Field Name</t>
   </si>
@@ -121,9 +120,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>The contact number for the facility</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -160,9 +156,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>Attributes</t>
   </si>
   <si>
@@ -175,12 +168,6 @@
     <t>address_id</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>An ID that links the a facilities address</t>
-  </si>
-  <si>
     <t>The name of the facility</t>
   </si>
   <si>
@@ -292,12 +279,6 @@
     <t>An ID unique to each address</t>
   </si>
   <si>
-    <t>match_official</t>
-  </si>
-  <si>
-    <t>official_id</t>
-  </si>
-  <si>
     <t>total_games</t>
   </si>
   <si>
@@ -373,27 +354,9 @@
     <t>founded</t>
   </si>
   <si>
-    <t>address_1</t>
-  </si>
-  <si>
-    <t>address_2</t>
-  </si>
-  <si>
     <t>When the team was founded</t>
   </si>
   <si>
-    <t>First line of the teams address</t>
-  </si>
-  <si>
-    <t>Second line of the teams address</t>
-  </si>
-  <si>
-    <t>The city the team is located in</t>
-  </si>
-  <si>
-    <t>The contact number for the team</t>
-  </si>
-  <si>
     <t>First line of the address</t>
   </si>
   <si>
@@ -421,12 +384,6 @@
     <t>An ID which refers to a match</t>
   </si>
   <si>
-    <t>An ID which refers to an official</t>
-  </si>
-  <si>
-    <t>mo_secletion</t>
-  </si>
-  <si>
     <t>code_id</t>
   </si>
   <si>
@@ -511,9 +468,6 @@
     <t>The name/title of the competition</t>
   </si>
   <si>
-    <t>The price(s) for the competition winner(s)</t>
-  </si>
-  <si>
     <t>position</t>
   </si>
   <si>
@@ -529,60 +483,21 @@
     <t>point</t>
   </si>
   <si>
-    <t>result_id</t>
-  </si>
-  <si>
     <t>An ID which refers to a player</t>
   </si>
   <si>
-    <t>An ID which refers to the results</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>season_id</t>
-  </si>
-  <si>
-    <t>An ID unique to each games results</t>
-  </si>
-  <si>
-    <t>An ID which refers to the season the game was played in</t>
-  </si>
-  <si>
     <t>season</t>
   </si>
   <si>
-    <t>winning_team</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t>final_score</t>
-  </si>
-  <si>
-    <t>The winning team of the season</t>
-  </si>
-  <si>
-    <t>The year which the season took place</t>
-  </si>
-  <si>
     <t>grade</t>
   </si>
   <si>
     <t>grade_id</t>
   </si>
   <si>
-    <t>grade_season</t>
-  </si>
-  <si>
-    <t>grade_comp</t>
-  </si>
-  <si>
     <t>min_dob</t>
   </si>
   <si>
@@ -613,10 +528,73 @@
     <t>An ID which refers to the persons address information</t>
   </si>
   <si>
-    <t>The persons contact email</t>
-  </si>
-  <si>
-    <t>The persons contact mobile number</t>
+    <t>A point scored by a player</t>
+  </si>
+  <si>
+    <t>join_date</t>
+  </si>
+  <si>
+    <t>The date the player joined the team</t>
+  </si>
+  <si>
+    <t>contact_id</t>
+  </si>
+  <si>
+    <t>An ID which refers to the teams address</t>
+  </si>
+  <si>
+    <t>An ID which refers to the teams grade</t>
+  </si>
+  <si>
+    <t>An ID which refers to the teams contact information</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>The final score of the match</t>
+  </si>
+  <si>
+    <t>referee_secletion</t>
+  </si>
+  <si>
+    <t>referee_id</t>
+  </si>
+  <si>
+    <t>An ID which refers to a referee</t>
+  </si>
+  <si>
+    <t>Referee</t>
+  </si>
+  <si>
+    <t>The date which the person started the role</t>
+  </si>
+  <si>
+    <t>An ID which refers to the persons contact information</t>
+  </si>
+  <si>
+    <t>An ID unique to each set of contact information</t>
+  </si>
+  <si>
+    <t>A persons contact email</t>
+  </si>
+  <si>
+    <t>A persons contact mobile</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>An ID which refers the facilities contact information</t>
+  </si>
+  <si>
+    <t>An ID which refers the facilities address</t>
+  </si>
+  <si>
+    <t>The prize(s) for the competition winner(s)</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1101,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1116,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1147,7 +1125,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1159,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1167,10 +1145,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
@@ -1183,10 +1161,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1196,10 +1174,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -1209,10 +1187,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -1221,44 +1199,36 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>186</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1305,7 +1275,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1289,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1328,7 +1298,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1340,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1348,10 +1318,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
@@ -1359,41 +1329,43 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -1462,7 +1434,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,13 +1442,13 @@
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1485,7 +1457,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1497,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1505,96 +1477,86 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1641,7 +1603,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1617,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1664,7 +1626,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1676,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1684,10 +1646,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>19</v>
@@ -1699,13 +1661,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1714,21 +1676,27 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1796,12 +1764,12 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
@@ -1810,7 +1778,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1819,7 +1787,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1831,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1839,13 +1807,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1854,13 +1822,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1957,7 +1925,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1966,7 +1934,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1978,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1986,39 +1954,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2094,7 +2062,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2076,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2117,7 +2085,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2129,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2137,13 +2105,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2152,36 +2120,42 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2249,7 +2223,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,7 +2237,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2272,7 +2246,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2284,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2292,13 +2266,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2307,13 +2281,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -2322,13 +2296,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2404,7 +2378,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,7 +2392,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2427,7 +2401,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2439,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2447,13 +2421,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2462,13 +2436,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -2550,8 +2524,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2574,7 +2548,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2586,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2594,46 +2568,50 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
     </row>
@@ -2716,7 +2694,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2725,7 +2703,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2737,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2745,39 +2723,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2853,7 +2831,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,13 +2839,13 @@
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2876,7 +2854,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2888,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2896,26 +2874,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -2924,30 +2902,30 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>34</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -3014,7 +2992,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3037,7 +3015,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3049,65 +3027,57 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>160</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3170,487 +3140,8 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A655F7D-A785-4C93-BC06-420EDFBA04E5}">
-  <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04E0BCD-1A6F-4935-A798-52EEF861BBCC}">
-  <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92AA4EF-BD71-485B-BCED-5421BE5D232D}">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B497D195-D97D-43BA-A6DB-DEB9A38F07E4}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3668,7 +3159,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3677,7 +3168,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3689,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3697,13 +3188,328 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FF4AD-6EBB-4D5D-B48E-D66BC4263F8E}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>77</v>
+        <v>172</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B497D195-D97D-43BA-A6DB-DEB9A38F07E4}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -3713,10 +3519,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -3726,10 +3532,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -3739,23 +3545,23 @@
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -3817,7 +3623,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3831,7 +3637,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3840,7 +3646,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3852,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3860,13 +3666,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -3875,23 +3681,27 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3980,7 +3790,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3989,7 +3799,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4001,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4009,26 +3819,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -4125,7 +3935,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4134,7 +3944,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4146,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4154,10 +3964,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>17</v>
@@ -4169,13 +3979,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -4184,52 +3994,52 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -4298,7 +4108,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4307,7 +4117,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4319,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4327,13 +4137,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -4342,39 +4152,39 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -4443,7 +4253,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4457,7 +4267,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4466,7 +4276,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4478,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4486,10 +4296,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>16</v>
@@ -4501,26 +4311,26 @@
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -4610,7 +4420,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4619,7 +4429,7 @@
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4631,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4639,13 +4449,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -4654,54 +4464,54 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="E7" s="9"/>
     </row>

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Desktop\Polytech Work\DB2-Design-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\DB2-Design-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3CAB77-380A-430B-B182-3DB3FC182682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB64953-68E7-48F8-BE49-BC6F285888C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="5" activeTab="17" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="2" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="6" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="181">
   <si>
     <t>Field Name</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>The prize(s) for the competition winner(s)</t>
+  </si>
+  <si>
+    <t>copied</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -736,12 +739,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -783,6 +854,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1099,29 +1189,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3134A29A-D97E-4DC9-B445-824F51CC3799}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1136,9 +1225,6 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1150,10 +1236,9 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1163,10 +1248,9 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1176,10 +1260,9 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -1189,10 +1272,9 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1204,10 +1286,9 @@
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1219,50 +1300,25 @@
       <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2524,7 +2580,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -3301,7 +3357,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,31 +3513,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B497D195-D97D-43BA-A6DB-DEB9A38F07E4}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -3494,11 +3548,8 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -3508,12 +3559,11 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
@@ -3521,12 +3571,11 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>12</v>
@@ -3534,12 +3583,11 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -3547,12 +3595,11 @@
       <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>31</v>
@@ -3560,57 +3607,25 @@
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3620,29 +3635,28 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40DC50D-C404-4EBB-B950-9EB941FBA68B}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3657,9 +3671,6 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -3671,10 +3682,9 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3686,10 +3696,9 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -3699,71 +3708,25 @@
       <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3773,31 +3736,29 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F93BE9-5135-4809-8C82-487B4A339C8E}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -3810,11 +3771,8 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -3824,12 +3782,11 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>48</v>
@@ -3837,78 +3794,25 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\DB2-Design-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB64953-68E7-48F8-BE49-BC6F285888C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0253ECF-ACA9-44AF-B570-4FFB48563B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="2" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="7" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="6" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="183">
   <si>
     <t>Field Name</t>
   </si>
@@ -336,12 +336,6 @@
     <t>An ID which refers to a person</t>
   </si>
   <si>
-    <t>Refers to if the player is injured</t>
-  </si>
-  <si>
-    <t>Refers to if the player is available to play</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -598,13 +592,25 @@
   </si>
   <si>
     <t>copied</t>
+  </si>
+  <si>
+    <t>integer(1)</t>
+  </si>
+  <si>
+    <t>boolean; Refers to if the player is injured</t>
+  </si>
+  <si>
+    <t>boolean; Refers to if the player is available to play</t>
+  </si>
+  <si>
+    <t>boolean; Refers to if the referee is injured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +657,14 @@
       <color theme="1"/>
       <name val="Arial Nova"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -812,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,12 +862,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -863,16 +871,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1204,13 +1230,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="17"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1236,7 +1262,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1248,8 +1274,8 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>153</v>
+      <c r="D4" s="14" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1260,8 +1286,8 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>154</v>
+      <c r="D5" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1272,8 +1298,8 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>155</v>
+      <c r="D6" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1286,8 +1312,8 @@
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>156</v>
+      <c r="D7" s="14" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1295,25 +1321,25 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>171</v>
+      <c r="D8" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1328,31 +1354,29 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188C1F7C-F856-4881-A949-C006F7614B28}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1365,12 +1389,9 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1379,13 +1400,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1394,93 +1414,52 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>179</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1504,12 +1483,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1533,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
@@ -1546,7 +1525,7 @@
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>38</v>
@@ -1559,13 +1538,13 @@
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -1578,33 +1557,33 @@
         <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1673,12 +1652,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1702,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
@@ -1717,13 +1696,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1732,26 +1711,26 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -1834,12 +1813,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>164</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1863,13 +1842,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1878,13 +1857,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -1983,10 +1962,10 @@
       <c r="A1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2010,39 +1989,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2132,12 +2111,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2161,13 +2140,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2182,7 +2161,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -2191,26 +2170,26 @@
         <v>83</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -2293,12 +2272,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>120</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2322,13 +2301,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2337,13 +2316,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -2352,13 +2331,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2448,12 +2427,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>125</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2477,13 +2456,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -2492,13 +2471,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="E4" s="9"/>
     </row>
@@ -2595,12 +2574,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>130</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2624,49 +2603,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="9"/>
@@ -2750,12 +2729,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>135</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2779,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
@@ -2792,26 +2771,26 @@
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2903,10 +2882,10 @@
       <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2964,7 +2943,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2973,13 +2952,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -3062,12 +3041,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>139</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3097,7 +3076,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -3106,26 +3085,26 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -3215,12 +3194,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3244,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
@@ -3257,39 +3236,39 @@
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -3354,29 +3333,29 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FF4AD-6EBB-4D5D-B48E-D66BC4263F8E}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+    <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3400,19 +3379,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>14</v>
@@ -3421,15 +3400,15 @@
         <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>15</v>
@@ -3438,69 +3417,25 @@
         <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
@@ -3515,8 +3450,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,7 +3463,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="20"/>
@@ -3559,7 +3494,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="19" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3571,8 +3506,8 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>100</v>
+      <c r="D4" s="19" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3583,8 +3518,8 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>101</v>
+      <c r="D5" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3595,7 +3530,7 @@
       <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3607,7 +3542,7 @@
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3620,7 +3555,7 @@
     <row r="9" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3650,13 +3585,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="17"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3682,7 +3617,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3696,7 +3631,7 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3708,8 +3643,8 @@
       <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>170</v>
+      <c r="D5" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3721,7 +3656,7 @@
     <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3686,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="20"/>
@@ -3782,7 +3717,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3794,7 +3729,7 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3807,7 +3742,7 @@
     <row r="6" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3841,10 +3776,10 @@
       <c r="A1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4014,10 +3949,10 @@
       <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4154,31 +4089,29 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69023113-D5E1-40F5-ADE2-BA6E6A3342E7}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -4191,27 +4124,23 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -4220,12 +4149,11 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>74</v>
@@ -4233,71 +4161,37 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4326,10 +4220,10 @@
       <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\DB2-Design-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0253ECF-ACA9-44AF-B570-4FFB48563B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717CE240-31AC-4F7E-A33A-D021F1BB9839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="7" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="10" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="6" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="183">
   <si>
     <t>Field Name</t>
   </si>
@@ -875,6 +875,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,18 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1233,9 +1233,9 @@
       <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,9 +1372,9 @@
       <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1391,7 +1391,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1405,7 +1405,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1438,7 +1438,7 @@
       <c r="C6" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1466,10 +1466,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2245F93-9B0E-461F-B4AD-A3F29B2A559D}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,17 +1478,16 @@
     <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1503,12 +1502,9 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1517,118 +1513,94 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1654,10 +1626,10 @@
       <c r="A1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1815,10 +1787,10 @@
       <c r="A1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1962,10 +1934,10 @@
       <c r="A1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2113,10 +2085,10 @@
       <c r="A1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2274,10 +2246,10 @@
       <c r="A1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2429,10 +2401,10 @@
       <c r="A1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2576,10 +2548,10 @@
       <c r="A1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2731,10 +2703,10 @@
       <c r="A1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2882,10 +2854,10 @@
       <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3043,10 +3015,10 @@
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3196,10 +3168,10 @@
       <c r="A1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3336,7 +3308,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F21" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,10 +3324,10 @@
       <c r="A1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3451,7 +3423,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,9 +3438,9 @@
       <c r="A1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3588,9 +3560,9 @@
       <c r="A1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3689,9 +3661,9 @@
       <c r="A1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3776,10 +3748,10 @@
       <c r="A1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3949,10 +3921,10 @@
       <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4091,8 +4063,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4107,9 +4079,9 @@
       <c r="A1" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4126,7 +4098,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -4140,7 +4112,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -4179,9 +4151,9 @@
     </row>
     <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4220,10 +4192,10 @@
       <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\DB2-Design-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717CE240-31AC-4F7E-A33A-D021F1BB9839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463C347C-6A27-4CBB-8552-C2524EC59BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" activeTab="10" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="8" activeTab="20" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="6" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="184">
   <si>
     <t>Field Name</t>
   </si>
@@ -549,9 +549,6 @@
     <t>The final score of the match</t>
   </si>
   <si>
-    <t>referee_secletion</t>
-  </si>
-  <si>
     <t>referee_id</t>
   </si>
   <si>
@@ -604,6 +601,12 @@
   </si>
   <si>
     <t>boolean; Refers to if the referee is injured</t>
+  </si>
+  <si>
+    <t>referee_selection</t>
+  </si>
+  <si>
+    <t>varchar(2)</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -898,6 +901,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1327,7 +1345,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1339,7 +1357,7 @@
     <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1424,10 +1442,10 @@
         <v>90</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1436,10 +1454,10 @@
         <v>91</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1451,7 +1469,7 @@
     <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1468,8 +1486,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1610,7 @@
     <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1768,31 +1786,29 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71DAC37-6EFB-4B86-A8AC-50EA3C991879}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1805,11 +1821,8 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1819,93 +1832,39 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2066,10 +2025,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493335D7-29F2-4FA1-A104-C151237F28D9}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,20 +2036,18 @@
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -2103,12 +2060,9 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2117,13 +2071,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2132,13 +2085,12 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2147,12 +2099,11 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>156</v>
@@ -2160,64 +2111,25 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2227,29 +2139,28 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D4B48C-49DA-4D84-9AB2-50E75C789535}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2261,15 +2172,12 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:5" s="30" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2278,13 +2186,13 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2293,13 +2201,12 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:5" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2308,74 +2215,29 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2607,7 +2469,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2684,7 +2546,7 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7B78A5-B5FB-40DA-B8F7-073DA6027155}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -2693,22 +2555,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -2721,12 +2581,9 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2735,25 +2592,23 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>135</v>
@@ -2761,71 +2616,25 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2915,7 +2724,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="9"/>
     </row>
@@ -2930,7 +2739,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -3149,31 +2958,29 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92AA4EF-BD71-485B-BCED-5421BE5D232D}">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -3186,11 +2993,8 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -3200,12 +3004,11 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>109</v>
@@ -3213,12 +3016,11 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>145</v>
@@ -3226,12 +3028,11 @@
       <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>146</v>
@@ -3239,64 +3040,25 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3322,7 +3084,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -3357,7 +3119,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -3372,10 +3134,10 @@
         <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3389,10 +3151,10 @@
         <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3405,7 +3167,7 @@
     <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +3289,7 @@
     <row r="9" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3378,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3628,7 +3390,7 @@
     <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3714,7 +3476,7 @@
     <row r="6" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4077,7 +3839,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -4102,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>21</v>
@@ -4143,10 +3905,10 @@
         <v>90</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4158,7 +3920,7 @@
     <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\DB2-Design-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463C347C-6A27-4CBB-8552-C2524EC59BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E06F9-E022-46DE-A23B-D155AE2CC93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="8" activeTab="20" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="5" activeTab="5" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="6" r:id="rId1"/>
@@ -890,18 +890,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -916,6 +904,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1251,9 +1251,9 @@
       <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1390,9 +1390,9 @@
       <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1502,9 +1502,9 @@
       <c r="A1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1625,31 +1625,29 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A2F7F4-0E5B-438B-A61A-22546EE1F016}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1662,12 +1660,9 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1676,13 +1671,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1691,13 +1685,12 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1706,12 +1699,11 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>162</v>
@@ -1719,64 +1711,25 @@
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1804,9 +1757,9 @@
       <c r="A1" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1893,10 +1846,10 @@
       <c r="A1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2043,9 +1996,9 @@
       <c r="A1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2071,7 +2024,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2085,7 +2038,7 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2099,7 +2052,7 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2111,7 +2064,7 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="27" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2157,9 +2110,9 @@
       <c r="A1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2176,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="30" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="26" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -2186,12 +2139,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -2201,11 +2154,11 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
@@ -2215,10 +2168,10 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -2244,31 +2197,29 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5AA15-3BFE-461F-A57E-6D6FCE4A0D33}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -2281,11 +2232,8 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -2295,12 +2243,11 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2310,78 +2257,25 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2391,31 +2285,29 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA7FDF5-A5B7-4B6A-93CF-EA72AC6D5AB8}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -2428,11 +2320,8 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -2442,12 +2331,11 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>109</v>
@@ -2455,12 +2343,11 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>132</v>
@@ -2468,12 +2355,11 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>141</v>
@@ -2481,62 +2367,23 @@
       <c r="C6" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2564,9 +2411,9 @@
       <c r="A1" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2663,10 +2510,10 @@
       <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2805,31 +2652,29 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B885CAA-289A-41CC-942B-745007C798A4}">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -2842,12 +2687,9 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2856,13 +2698,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2871,12 +2712,11 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>139</v>
@@ -2884,74 +2724,28 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2960,7 +2754,7 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2976,9 +2770,9 @@
       <c r="A1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3086,10 +2880,10 @@
       <c r="A1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3200,9 +2994,9 @@
       <c r="A1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3322,9 +3116,9 @@
       <c r="A1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3423,9 +3217,9 @@
       <c r="A1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3491,31 +3285,29 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D75BDBA-1AFE-4EC1-B9E5-91911710D93D}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -3528,12 +3320,9 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3542,13 +3331,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3557,13 +3345,12 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -3572,12 +3359,11 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>56</v>
@@ -3585,12 +3371,11 @@
       <c r="C6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>57</v>
@@ -3598,12 +3383,11 @@
       <c r="C7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>58</v>
@@ -3611,50 +3395,25 @@
       <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3664,31 +3423,29 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF223EA-C2E4-424D-B2BA-9BCAF8D122AD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -3701,12 +3458,9 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3715,13 +3469,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3730,12 +3483,11 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
@@ -3743,12 +3495,11 @@
       <c r="C5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>66</v>
@@ -3756,64 +3507,25 @@
       <c r="C6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3841,9 +3553,9 @@
       <c r="A1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3954,10 +3666,10 @@
       <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\DB2-Design-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E06F9-E022-46DE-A23B-D155AE2CC93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401C9692-CE92-4662-9057-C3A3AF5D1423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" firstSheet="5" activeTab="5" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="709" xr2:uid="{52EDD9C1-9136-4973-976C-EC648C585359}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="6" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="185">
   <si>
     <t>Field Name</t>
   </si>
@@ -607,6 +607,9 @@
   </si>
   <si>
     <t>varchar(2)</t>
+  </si>
+  <si>
+    <t>all tables copied to word doc</t>
   </si>
 </sst>
 </file>
@@ -689,32 +692,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -829,92 +812,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1233,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3134A29A-D97E-4DC9-B445-824F51CC3799}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,13 +1216,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1280,7 +1248,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1292,7 +1260,7 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1304,7 +1272,7 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1316,7 +1284,7 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1330,7 +1298,7 @@
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1344,13 +1312,13 @@
       <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
@@ -1358,6 +1326,11 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1387,12 +1360,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1409,7 +1382,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1418,12 +1391,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1432,7 +1405,7 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1444,7 +1417,7 @@
       <c r="C5" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1456,7 +1429,7 @@
       <c r="C6" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1499,13 +1472,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1522,7 +1495,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1531,36 +1504,36 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1569,12 +1542,12 @@
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1583,12 +1556,12 @@
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1597,7 +1570,7 @@
       <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1640,12 +1613,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1662,7 +1635,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1671,12 +1644,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1685,12 +1658,12 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1699,7 +1672,7 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1711,7 +1684,7 @@
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1754,12 +1727,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1785,7 +1758,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1799,7 +1772,7 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1827,29 +1800,27 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969DDC76-82C0-4C09-B1AF-07B5E609F498}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1864,9 +1835,6 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1878,10 +1846,9 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1891,10 +1858,9 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1904,71 +1870,26 @@
       <c r="C5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1993,12 +1914,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2015,7 +1936,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2024,12 +1945,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2038,12 +1959,12 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2052,7 +1973,7 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="24" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2064,7 +1985,7 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2107,13 +2028,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2129,8 +2050,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="26" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:5" s="23" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2139,13 +2060,13 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2154,12 +2075,12 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:5" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2168,10 +2089,10 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -2212,12 +2133,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2243,7 +2164,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2257,7 +2178,7 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2300,12 +2221,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2331,7 +2252,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2343,7 +2264,7 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2355,7 +2276,7 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2367,7 +2288,7 @@
       <c r="C6" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -2408,12 +2329,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2430,7 +2351,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2439,7 +2360,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2451,7 +2372,7 @@
       <c r="C4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2463,7 +2384,7 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2491,31 +2412,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F1E5BD-E349-426E-8C47-F9AB098AFD23}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -2528,12 +2447,9 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2542,12 +2458,11 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>35</v>
@@ -2555,13 +2470,12 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2570,13 +2484,12 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2585,67 +2498,28 @@
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2667,12 +2541,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2689,7 +2563,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2698,12 +2572,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2712,7 +2586,7 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2724,7 +2598,7 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2767,12 +2641,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2798,7 +2672,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2810,7 +2684,7 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2822,7 +2696,7 @@
       <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2834,7 +2708,7 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2877,13 +2751,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2991,12 +2865,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3022,7 +2896,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3034,7 +2908,7 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3046,7 +2920,7 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3058,7 +2932,7 @@
       <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3070,7 +2944,7 @@
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3113,13 +2987,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3145,7 +3019,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3159,7 +3033,7 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3171,7 +3045,7 @@
       <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3214,12 +3088,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3245,7 +3119,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3257,7 +3131,7 @@
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3287,7 +3161,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3300,12 +3174,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3322,7 +3196,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3331,12 +3205,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3345,12 +3219,12 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -3359,7 +3233,7 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3371,7 +3245,7 @@
       <c r="C6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3383,7 +3257,7 @@
       <c r="C7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3395,7 +3269,7 @@
       <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3438,12 +3312,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3460,7 +3334,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3469,12 +3343,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3483,7 +3357,7 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3495,7 +3369,7 @@
       <c r="C5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3507,7 +3381,7 @@
       <c r="C6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3550,12 +3424,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -3572,7 +3446,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3581,12 +3455,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3595,7 +3469,7 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3607,7 +3481,7 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3619,15 +3493,15 @@
       <c r="C6" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,10 +3521,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59694024-884F-49E5-A042-C8DC6400E3FA}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3659,19 +3533,17 @@
     <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -3684,12 +3556,9 @@
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3698,13 +3567,12 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3713,13 +3581,12 @@
       <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -3728,12 +3595,11 @@
       <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>81</v>
@@ -3741,12 +3607,11 @@
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>82</v>
@@ -3754,57 +3619,25 @@
       <c r="C7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
